--- a/data/pca/factorExposure/factorExposure_2012-12-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-04.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001054401237150047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002303443918648919</v>
+      </c>
+      <c r="C2">
+        <v>-0.03120362884217524</v>
+      </c>
+      <c r="D2">
+        <v>0.004837520160896389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0006791578700008189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006528607689240801</v>
+      </c>
+      <c r="C4">
+        <v>-0.08355141571379132</v>
+      </c>
+      <c r="D4">
+        <v>0.0749923050378201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>3.459750427208705e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01416626378183249</v>
+      </c>
+      <c r="C6">
+        <v>-0.114751417589908</v>
+      </c>
+      <c r="D6">
+        <v>0.03328836149493065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001914300391499878</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004627578788927229</v>
+      </c>
+      <c r="C7">
+        <v>-0.05813760902463117</v>
+      </c>
+      <c r="D7">
+        <v>0.03028381031201131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>3.649546980318222e-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.00552313872857465</v>
+      </c>
+      <c r="C8">
+        <v>-0.03745112523665922</v>
+      </c>
+      <c r="D8">
+        <v>0.04189297502798218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003726057480086164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004665944671452898</v>
+      </c>
+      <c r="C9">
+        <v>-0.07072342956332403</v>
+      </c>
+      <c r="D9">
+        <v>0.07303435486154591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001906826992791701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005435982584475097</v>
+      </c>
+      <c r="C10">
+        <v>-0.05796286760277675</v>
+      </c>
+      <c r="D10">
+        <v>-0.1971104650105245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002546448731858961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005767059037457073</v>
+      </c>
+      <c r="C11">
+        <v>-0.07996106827390448</v>
+      </c>
+      <c r="D11">
+        <v>0.05995726156503746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-8.735730323472389e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004100609522420197</v>
+      </c>
+      <c r="C12">
+        <v>-0.06423936634919993</v>
+      </c>
+      <c r="D12">
+        <v>0.04653367913187721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001091289423756244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008981565409703966</v>
+      </c>
+      <c r="C13">
+        <v>-0.06853158663422147</v>
+      </c>
+      <c r="D13">
+        <v>0.05765538275292396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.0008513365996492644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001342325723624261</v>
+      </c>
+      <c r="C14">
+        <v>-0.04455083131032949</v>
+      </c>
+      <c r="D14">
+        <v>0.00498210833472457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0006739990363744189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005961265247158528</v>
+      </c>
+      <c r="C15">
+        <v>-0.04183211782575672</v>
+      </c>
+      <c r="D15">
+        <v>0.03041671921471223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0008028960920154623</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005088553956889391</v>
+      </c>
+      <c r="C16">
+        <v>-0.06530244253825911</v>
+      </c>
+      <c r="D16">
+        <v>0.05006886760807078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0001199488888183671</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008678611313352534</v>
+      </c>
+      <c r="C20">
+        <v>-0.06536781869243401</v>
+      </c>
+      <c r="D20">
+        <v>0.04319356115131799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005752193265392724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009868337557322244</v>
+      </c>
+      <c r="C21">
+        <v>-0.02149165527465896</v>
+      </c>
+      <c r="D21">
+        <v>0.03907366141970125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01680041360192962</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006460893206471317</v>
+      </c>
+      <c r="C22">
+        <v>-0.09439739247204948</v>
+      </c>
+      <c r="D22">
+        <v>0.116727559915451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01714445177427408</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006285893241273461</v>
+      </c>
+      <c r="C23">
+        <v>-0.09521550989328303</v>
+      </c>
+      <c r="D23">
+        <v>0.1167464414702622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001570623880596506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005555234641551723</v>
+      </c>
+      <c r="C24">
+        <v>-0.07701758644813142</v>
+      </c>
+      <c r="D24">
+        <v>0.06498479733591228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004419927770640129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002971455155505254</v>
+      </c>
+      <c r="C25">
+        <v>-0.07817268654397802</v>
+      </c>
+      <c r="D25">
+        <v>0.06566977057134099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.003846843494696504</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003660731458129441</v>
+      </c>
+      <c r="C26">
+        <v>-0.04103255740367431</v>
+      </c>
+      <c r="D26">
+        <v>0.0215495953237176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004725356706332735</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0006288008115865108</v>
+      </c>
+      <c r="C28">
+        <v>-0.1068482985396535</v>
+      </c>
+      <c r="D28">
+        <v>-0.3194478074153055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001480491614070536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003088175567745058</v>
+      </c>
+      <c r="C29">
+        <v>-0.05001710688300254</v>
+      </c>
+      <c r="D29">
+        <v>0.00852916612488731</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002936918471079311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009741766258952364</v>
+      </c>
+      <c r="C30">
+        <v>-0.1421493197752315</v>
+      </c>
+      <c r="D30">
+        <v>0.1032007094894064</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0006041653674155567</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006229590816666675</v>
+      </c>
+      <c r="C31">
+        <v>-0.0446402484206021</v>
+      </c>
+      <c r="D31">
+        <v>0.02887369337471096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0005285979187410884</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004185684196586207</v>
+      </c>
+      <c r="C32">
+        <v>-0.03915331376716739</v>
+      </c>
+      <c r="D32">
+        <v>0.02218887784915012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.00170249497927128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008683868069797974</v>
+      </c>
+      <c r="C33">
+        <v>-0.08696207285631483</v>
+      </c>
+      <c r="D33">
+        <v>0.06454654023027173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004476115659767873</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004077305771532163</v>
+      </c>
+      <c r="C34">
+        <v>-0.05746665449177497</v>
+      </c>
+      <c r="D34">
+        <v>0.05339537260337232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0008340786447974204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004978991175365804</v>
+      </c>
+      <c r="C35">
+        <v>-0.040605897882344</v>
+      </c>
+      <c r="D35">
+        <v>0.01826484615945695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003566263132309211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001022928588824063</v>
+      </c>
+      <c r="C36">
+        <v>-0.02478042089996406</v>
+      </c>
+      <c r="D36">
+        <v>0.02152136841461249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002161373289267938</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009484619945193663</v>
+      </c>
+      <c r="C38">
+        <v>-0.03440863215788827</v>
+      </c>
+      <c r="D38">
+        <v>0.01494632860669067</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01286703365885173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0007628388700459967</v>
+      </c>
+      <c r="C39">
+        <v>-0.115593754743662</v>
+      </c>
+      <c r="D39">
+        <v>0.0756343632504963</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009696843156991306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002750883475096405</v>
+      </c>
+      <c r="C40">
+        <v>-0.09020859503689301</v>
+      </c>
+      <c r="D40">
+        <v>0.01452794929219596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0008794899858755555</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007311852580181855</v>
+      </c>
+      <c r="C41">
+        <v>-0.03834460593186818</v>
+      </c>
+      <c r="D41">
+        <v>0.03770483216803162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003231444528513198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003833202028160988</v>
+      </c>
+      <c r="C43">
+        <v>-0.05342002846787167</v>
+      </c>
+      <c r="D43">
+        <v>0.02404310016832997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005403561235884104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003156506183915564</v>
+      </c>
+      <c r="C44">
+        <v>-0.1089960210356789</v>
+      </c>
+      <c r="D44">
+        <v>0.06884828544110044</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001173353160603497</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002026028674106962</v>
+      </c>
+      <c r="C46">
+        <v>-0.03321076424928698</v>
+      </c>
+      <c r="D46">
+        <v>0.03545942074006158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0002920905801631142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002697063136281606</v>
+      </c>
+      <c r="C47">
+        <v>-0.03735427915664654</v>
+      </c>
+      <c r="D47">
+        <v>0.0221902780232415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004342357099824739</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006789204203651751</v>
+      </c>
+      <c r="C48">
+        <v>-0.03118818685776951</v>
+      </c>
+      <c r="D48">
+        <v>0.03223306575570542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01128281246599119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01593567246973898</v>
+      </c>
+      <c r="C49">
+        <v>-0.1848899504782224</v>
+      </c>
+      <c r="D49">
+        <v>0.01691347429779161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001142646776177813</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003638644980574056</v>
+      </c>
+      <c r="C50">
+        <v>-0.04371962454663329</v>
+      </c>
+      <c r="D50">
+        <v>0.03690697340748707</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001057899747409989</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004700051478834227</v>
+      </c>
+      <c r="C51">
+        <v>-0.02593026522115304</v>
+      </c>
+      <c r="D51">
+        <v>0.0199780843452189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0008183913613371076</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02117632367389071</v>
+      </c>
+      <c r="C53">
+        <v>-0.1700178367605478</v>
+      </c>
+      <c r="D53">
+        <v>0.02584653992088029</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001442272091391383</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.00908732930202733</v>
+      </c>
+      <c r="C54">
+        <v>-0.05447617863833327</v>
+      </c>
+      <c r="D54">
+        <v>0.04421112282586013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003681881509198699</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009762542007535785</v>
+      </c>
+      <c r="C55">
+        <v>-0.1102531489439093</v>
+      </c>
+      <c r="D55">
+        <v>0.03823080292872447</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001893745758447899</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02038991724059401</v>
+      </c>
+      <c r="C56">
+        <v>-0.1744852789120767</v>
+      </c>
+      <c r="D56">
+        <v>0.01792178189833162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007879437327281122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.0191203722699159</v>
+      </c>
+      <c r="C58">
+        <v>-0.1094852691310875</v>
+      </c>
+      <c r="D58">
+        <v>0.06155284964873631</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.007315578997261876</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009914787056401437</v>
+      </c>
+      <c r="C59">
+        <v>-0.1647018284260862</v>
+      </c>
+      <c r="D59">
+        <v>-0.3292973213147892</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003802740179125266</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02469417264032298</v>
+      </c>
+      <c r="C60">
+        <v>-0.2222964347792764</v>
+      </c>
+      <c r="D60">
+        <v>0.03228364278750934</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01438807513968489</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001716475898160898</v>
+      </c>
+      <c r="C61">
+        <v>-0.09464805796301944</v>
+      </c>
+      <c r="D61">
+        <v>0.05583748809101498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1626373204732451</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1466003227025961</v>
+      </c>
+      <c r="C62">
+        <v>-0.09301719130706582</v>
+      </c>
+      <c r="D62">
+        <v>0.0389429924689389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.000497523800633066</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006323552662173975</v>
+      </c>
+      <c r="C63">
+        <v>-0.05500724448508255</v>
+      </c>
+      <c r="D63">
+        <v>0.02674590207134721</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0007731582815008659</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01493540332906717</v>
+      </c>
+      <c r="C64">
+        <v>-0.1056694382498502</v>
+      </c>
+      <c r="D64">
+        <v>0.0592504943699744</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002285730987820052</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01789171141448472</v>
+      </c>
+      <c r="C65">
+        <v>-0.1249772378127776</v>
+      </c>
+      <c r="D65">
+        <v>0.02368002292533301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007284855299586153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01315234185519901</v>
+      </c>
+      <c r="C66">
+        <v>-0.1595334005691002</v>
+      </c>
+      <c r="D66">
+        <v>0.1106681980481012</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.00371623988649202</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01572270892695872</v>
+      </c>
+      <c r="C67">
+        <v>-0.06531213300385375</v>
+      </c>
+      <c r="D67">
+        <v>0.02647314974696735</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.005917158842155014</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0008273435351893913</v>
+      </c>
+      <c r="C68">
+        <v>-0.08666330172215908</v>
+      </c>
+      <c r="D68">
+        <v>-0.261365271052003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.001900031799178326</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006076277706991782</v>
+      </c>
+      <c r="C69">
+        <v>-0.05026999567394419</v>
+      </c>
+      <c r="D69">
+        <v>0.03832008080591234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0001148510859681492</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001812888722679971</v>
+      </c>
+      <c r="C70">
+        <v>-0.002808301011187104</v>
+      </c>
+      <c r="D70">
+        <v>0.0008980372663870251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0001618094081226479</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005910776929018043</v>
+      </c>
+      <c r="C71">
+        <v>-0.09439063585166578</v>
+      </c>
+      <c r="D71">
+        <v>-0.3055142447620414</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003592248004942309</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01613646091808526</v>
+      </c>
+      <c r="C72">
+        <v>-0.1528686272397465</v>
+      </c>
+      <c r="D72">
+        <v>0.01524452811358548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01154697035303337</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03120759898826895</v>
+      </c>
+      <c r="C73">
+        <v>-0.2787659776094406</v>
+      </c>
+      <c r="D73">
+        <v>0.05541285498702479</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005491636440224243</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002006895144100918</v>
+      </c>
+      <c r="C74">
+        <v>-0.1044714772900398</v>
+      </c>
+      <c r="D74">
+        <v>0.03381565446298226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002855508907207731</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01125652334559923</v>
+      </c>
+      <c r="C75">
+        <v>-0.1250483447005272</v>
+      </c>
+      <c r="D75">
+        <v>0.0235658757427657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.008020805199738584</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02215188623001316</v>
+      </c>
+      <c r="C76">
+        <v>-0.1493842541211922</v>
+      </c>
+      <c r="D76">
+        <v>0.05750197621603686</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.003290986108992927</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02271604789632664</v>
+      </c>
+      <c r="C77">
+        <v>-0.1200496168416324</v>
+      </c>
+      <c r="D77">
+        <v>0.08195185994255456</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001345068046676575</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01504630406515787</v>
+      </c>
+      <c r="C78">
+        <v>-0.09625920117674265</v>
+      </c>
+      <c r="D78">
+        <v>0.07187209888927898</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02355112573309254</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03822279615956108</v>
+      </c>
+      <c r="C79">
+        <v>-0.1575495294509609</v>
+      </c>
+      <c r="D79">
+        <v>0.03005432182095959</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.006259351990096194</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01025112144461696</v>
+      </c>
+      <c r="C80">
+        <v>-0.03979269955905423</v>
+      </c>
+      <c r="D80">
+        <v>0.02888833122900152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0008563630267732457</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01604725159490523</v>
+      </c>
+      <c r="C81">
+        <v>-0.1286911121101847</v>
+      </c>
+      <c r="D81">
+        <v>0.0407102749610502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.004044708255621498</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02020276056284671</v>
+      </c>
+      <c r="C82">
+        <v>-0.141979185351</v>
+      </c>
+      <c r="D82">
+        <v>0.03489298049734992</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008420006076902247</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.0101161953031055</v>
+      </c>
+      <c r="C83">
+        <v>-0.05527174926240806</v>
+      </c>
+      <c r="D83">
+        <v>0.05377161240960303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01191683926464071</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01139956553788705</v>
+      </c>
+      <c r="C84">
+        <v>-0.03681236408605199</v>
+      </c>
+      <c r="D84">
+        <v>-0.00497477786690747</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01359134656200946</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02910103047132886</v>
+      </c>
+      <c r="C85">
+        <v>-0.1259166810012117</v>
+      </c>
+      <c r="D85">
+        <v>0.04286381144101374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001722295552876785</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005398559470609385</v>
+      </c>
+      <c r="C86">
+        <v>-0.04991062409305462</v>
+      </c>
+      <c r="D86">
+        <v>0.03006239917308729</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.003282633106819586</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01057247784449073</v>
+      </c>
+      <c r="C87">
+        <v>-0.1285802145945598</v>
+      </c>
+      <c r="D87">
+        <v>0.07164455753717139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01141905396834695</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002873645939604249</v>
+      </c>
+      <c r="C88">
+        <v>-0.06500342559108442</v>
+      </c>
+      <c r="D88">
+        <v>0.01863321361988282</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01358082263260089</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001361821269932224</v>
+      </c>
+      <c r="C89">
+        <v>-0.1462861855637624</v>
+      </c>
+      <c r="D89">
+        <v>-0.3295460273492002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.0009522523226198271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006826098602962686</v>
+      </c>
+      <c r="C90">
+        <v>-0.120584118303471</v>
+      </c>
+      <c r="D90">
+        <v>-0.317878107582647</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0002700955207218143</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01051515323960366</v>
+      </c>
+      <c r="C91">
+        <v>-0.1003503662942866</v>
+      </c>
+      <c r="D91">
+        <v>0.02231795780910271</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008709090822417423</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001169588828532016</v>
+      </c>
+      <c r="C92">
+        <v>-0.1360710991212239</v>
+      </c>
+      <c r="D92">
+        <v>-0.3240478874211271</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0004828956657668896</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005121566734877865</v>
+      </c>
+      <c r="C93">
+        <v>-0.105729922738384</v>
+      </c>
+      <c r="D93">
+        <v>-0.3018208252186851</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.002926700879467473</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02255262269234891</v>
+      </c>
+      <c r="C94">
+        <v>-0.1464769383541149</v>
+      </c>
+      <c r="D94">
+        <v>0.05105117530543032</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.005671617073513542</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.016365907862655</v>
+      </c>
+      <c r="C95">
+        <v>-0.1250592000974849</v>
+      </c>
+      <c r="D95">
+        <v>0.06004333475044542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.0006337198081960048</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03691011319875162</v>
+      </c>
+      <c r="C97">
+        <v>-0.2129999427075811</v>
+      </c>
+      <c r="D97">
+        <v>-0.007764275146110363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003445142682376334</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03715449400820404</v>
+      </c>
+      <c r="C98">
+        <v>-0.2493605350215933</v>
+      </c>
+      <c r="D98">
+        <v>0.04663405653742073</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9849602076863465</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9817747710403301</v>
+      </c>
+      <c r="C99">
+        <v>0.1181151119841389</v>
+      </c>
+      <c r="D99">
+        <v>-0.02607865703410394</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001403609161313068</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003122058203434646</v>
+      </c>
+      <c r="C101">
+        <v>-0.05013167222009432</v>
+      </c>
+      <c r="D101">
+        <v>0.008895737164590078</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
